--- a/発注管理/data/b40-u30-d20240725-.xlsx
+++ b/発注管理/data/b40-u30-d20240725-.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfh077_user.MEFUREDMN\Desktop\excel-order-manage\発注管理\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{449DA3C7-2966-477B-BB34-A4C1B88123AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C20402D5-9438-4716-A995-D774AA26F030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CB83E7CC-ABF4-445E-A1E2-7855E30B253F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{97922775-0263-4958-8900-8D0CCE44D4EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -382,7 +382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1071FED6-3045-4E6F-A8CA-B8C746021291}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37EA28C-92BB-4C28-AC16-C2B0C97B5EFD}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
